--- a/assets/disciplinas/LOM3241.xlsx
+++ b/assets/disciplinas/LOM3241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao estudante os principais tipos de síntese orgânica e inorgânica de materiais bem como apresentar as principais técnicas analíticas para caracterização de materiais.</t>
+    <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,65 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840730 - Antonio Jefferson da Silva Machado</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Química e materiais. Ligações químicas. Síntese de materiais e transformações químicas. Processos. Técnicas de caracterização de materiais. Tipos de materiais. Considerações econômicas e ambientais.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Química de materiais: definição; papel da química na ciência de materiais; fundamentos.
-Tipos de ligações químicas: forças de van der Waals, potencial de Lennard-Jones, ligação covalente, ligações por coordenação, ligações iônicas e ligações metálicas.
-Sínteses básicas e transformações químicas: reações de condensação, hidrólise ácida, importância dos haletos em síntese de materiais, reações de troca e metatéticas, substituição nucleofílica, substituição eletrofílica, química de coordenação, ramificação e reticulação, equilíbrio polimerização-despolimerização.
-Processos de síntese: isomerização, termólise, craqueamento, catálise, polimerização e método sol-gel.
-Determinação estrutural: espectroscopia no infravermelho, Raman, ressonância magnética nuclear e difração de raios X. 
-Técnicas especiais para caracterização de materiais: análises térmicas, condutividade elétrica, índice de refração e dispersão cromática, susceptibilidade magnética. 
-Tipos de materiais: metais, cerâmicas e polímeros. Estrutura e propriedades. Ciência de superfícies de materiais. Materiais em nanociência e nanotecnologia.
-Considerações econômicas e ambientais. A Química verde. Reciclagem e regeneração de materiais.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas e práticas ministradas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ALLCOCK, H. R. Introduction to Materials Chemistry, Wiley, Nova Iorque, 2008.
-FAHLMAN, B. D. Materials Chemistry, Springer, Holanda, 2007.
-ZHANG, S.; LI, L.; KUMAR, A. Materials Characterization Techniques, Boca Raton: CRC Press, 2008.
-LENG, Y. Materials Characterization: Introduction to Microscopic and Spectroscopic Methods, Wiley, Cingapura, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -689,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -700,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3241.xlsx
+++ b/assets/disciplinas/LOM3241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Chemistry of Materials</t>
+    <t>Materials chemistry</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with the main types of organic and inorganic synthesis of materials as well as presenting the main analytical techniques for material characterization.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,12 +88,18 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Introduction to the chemistry of materials and its association with the synthesis of new materials. The modern view of the atom and chemical bonds. Crystal structure and crystallographic characterization techniques. Epitaxial thin films and films in general and their impact on modern technology. Amorphous materials, synthesis and applications. Synthesis of materials and chemical transformations. Processes and Techniques of crystal growth in general. Conducting polymers and their applications in modern technology.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>Materials chemistry: definition; role of chemistry in materials science; fundamentals.Atomistics and the modern view of the atom with quantum foundations.Types of chemical bonds: van der Waals forces, Lennard-Jones potential, covalent bonding, coordination bonds, ionic bonds and metallic bonds.Polycrystalline and monocrystalline materials. The crystallographic order and crystallographic and microscopic characterization techniques. The importance of single crystals in electronic applications. High quality crystal growth techniques such as: flow method, Czochralski method, Brigdmann method, vapor transport method and modified isothermal vapor transport growth method. Amorphous materials and their importance for modern technology. Concepts and techniques for growing amorphous materials. Epitaxial thin films, growth techniques such as: chemical vapor, sputtering, laser ablation and MBE. Thin films grown by electrolysis for protective coating, concepts and applications. Synthesis of conductive polymers, concepts and applications as electronic devices.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -109,13 +118,13 @@
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
+    <t>Média simples de duas provas escritas,  Conceito Final = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>Aplicação de duas provas escritas dentro do prazo regimental antes do início do próximo semestre letivo.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -597,15 +606,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -616,12 +631,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -632,69 +653,75 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3241.xlsx
+++ b/assets/disciplinas/LOM3241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao estudante os principais tipos de síntese orgânica e inorgânica de materiais bem como apresentar as principais técnicas analíticas para caracterização de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with the main types of organic and inorganic synthesis of materials as well as presenting the main analytical techniques for material characterization.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840730 - Antonio Jefferson da Silva Machado</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with the main types of organic and inorganic synthesis of materials as well as presenting the main analytical techniques for material characterization.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução à química e sua associação com síntese de novos materiais. A visão moderna do átomo  e Ligações químicas. Estrutura cristalina e técnicas de caracterização cristalográfica. Filmes finos epitaxiais e filmes de uma maneira geral e seu impacto na tecnologica moderna. Crescimento de cristais  Materiais amorfos, síntese e aplicações. Processos e Técnicas de crescimento de cristais de um modo geral. Polímeros condutores e suas aplicações em tecnologica moderna.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Química de materiais: definição; papel da química na ciência de materiais; fundamentos.Atomística e a visão moderna do átomo com fundamentos quânticos.Tipos de ligações químicas: forças de van der Waals, potencial de Lennard-Jones, ligação covalente, ligações por coordenação, ligações iônicas e ligações metálicas.Materiais policristalinos e monocristalinos. A ordem cristalográfica e técnicas de caracterização cristalográfica e microscópica. A importância de monocristais em aplicações eletrônicas. Técnicas de crescimento de cristais de alta qualidade tais como: método do fluxo, método Czochralski, método Brigdmann, método do transporte de vapor e método de crescimento de transporte de vapor modificado e isotérmico. Materiais amorfos e sua importância para a tecnologica moderna. Conceitos e técnicas de crescimento de materiais amorfos. Filmes finos epitaxiais, técnicas de crescimento tais como: vapor químico, sputtering, laser ablation e MBE. Filmes finos crescidos por eletrólise para revestimento protetivo, conceitos e aplicações. Síntese de polímeros condutores, conceitos e aplicações como dispositivos eletrônicos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,28 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840897 - Clodoaldo Saron</t>
+    <t>Aulas expositivas e práticas ministradas em laboratório.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e práticas ministradas em laboratório.</t>
+    <t>Média simples de duas provas escritas,  Conceito Final = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média simples de duas provas escritas,  Conceito Final = (P1 + P2)/2</t>
+    <t>Aplicação de duas provas escritas dentro do prazo regimental antes do início do próximo semestre letivo.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de duas provas escritas dentro do prazo regimental antes do início do próximo semestre letivo.</t>
+    <t>ALLCOCK, H. R. Introduction to Materials Chemistry, Wiley, Nova Iorque, 2008.
+FAHLMAN, B. D. Materials Chemistry, Springer, Holanda, 2007.
+ZHANG, S.; LI, L.; KUMAR, A. Materials Characterization Techniques, Boca Raton: CRC Press, 2008.
+LENG, Y. Materials Characterization: Introduction to Microscopic and Spectroscopic Methods, Wiley, Cingapura, 2008.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,40 +633,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,30 +671,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -700,7 +709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -711,17 +720,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
